--- a/backend/app/models/nutrients-by-dua.xlsx
+++ b/backend/app/models/nutrients-by-dua.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACG\Desktop\..Dua Amir\7thSemester\NutriPK\backend\app\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B164A607-D415-4510-9D58-9938DAB94021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF3F757-D380-4058-8F1C-0A29D30D7135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="118">
   <si>
     <t>Dish Name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Aaloo Gosht (Beef)</t>
   </si>
   <si>
-    <t>Aaloo Gosht (Mutton)</t>
-  </si>
-  <si>
     <t>Tea (with milk &amp; sugar)</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>Was it cooked in ghee instead of oil?</t>
   </si>
   <si>
-    <t>Was portion larger than standard?</t>
-  </si>
-  <si>
     <t>How many tsp sugar? (1/2/3)</t>
   </si>
   <si>
@@ -377,6 +371,9 @@
   </si>
   <si>
     <t>Paya</t>
+  </si>
+  <si>
+    <t>Per person (~300g)</t>
   </si>
 </sst>
 </file>
@@ -435,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -443,6 +440,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,33 +801,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1">
-        <v>120</v>
-      </c>
-      <c r="D2" s="1">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="3">
+        <v>360</v>
+      </c>
+      <c r="D2" s="3">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1">
         <v>40</v>
@@ -838,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -849,16 +847,16 @@
         <v>41</v>
       </c>
       <c r="C3" s="1">
-        <v>125</v>
+        <v>16.14</v>
       </c>
       <c r="D3" s="1">
-        <v>13</v>
+        <v>2.58</v>
       </c>
       <c r="E3" s="1">
-        <v>4.5</v>
+        <v>0.53</v>
       </c>
       <c r="F3" s="1">
-        <v>8</v>
+        <v>0.39</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>53</v>
@@ -867,19 +865,19 @@
         <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="1">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -887,16 +885,16 @@
         <v>42</v>
       </c>
       <c r="C4" s="1">
-        <v>16.14</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1">
-        <v>2.58</v>
+        <v>0.8</v>
       </c>
       <c r="E4" s="1">
-        <v>0.53</v>
+        <v>11.7</v>
       </c>
       <c r="F4" s="1">
-        <v>0.39</v>
+        <v>12.8</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>54</v>
@@ -905,92 +903,92 @@
         <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>195</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1">
-        <v>163</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>12.8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>104</v>
+      <c r="J5" s="1">
+        <v>50</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="1">
-        <v>50</v>
+        <v>-40</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -998,37 +996,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
-        <v>185</v>
+        <v>410</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1">
-        <v>12</v>
+        <v>24.2</v>
       </c>
       <c r="F7" s="1">
-        <v>17</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1">
-        <v>-40</v>
+        <v>-70</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1039,16 +1037,16 @@
         <v>44</v>
       </c>
       <c r="C8" s="1">
-        <v>410</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1">
-        <v>42</v>
+        <v>12.8</v>
       </c>
       <c r="E8" s="1">
-        <v>24.2</v>
+        <v>6.5</v>
       </c>
       <c r="F8" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>56</v>
@@ -1057,19 +1055,19 @@
         <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-70</v>
+        <v>78</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1077,16 +1075,16 @@
         <v>45</v>
       </c>
       <c r="C9" s="1">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="D9" s="1">
-        <v>12.8</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>57</v>
@@ -1095,54 +1093,54 @@
         <v>67</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
+      </c>
+      <c r="J9" s="1">
+        <v>30</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
-        <v>259</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1">
-        <v>57</v>
+        <v>14.5</v>
       </c>
       <c r="E10" s="1">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>8.8000000000000007</v>
+        <v>13.5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="1">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1150,37 +1148,37 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F11" s="1">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1188,37 +1186,37 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1">
-        <v>14</v>
+        <v>23.2</v>
       </c>
       <c r="E12" s="1">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>14</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
+      </c>
+      <c r="J12" s="1">
+        <v>50</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1226,37 +1224,37 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="1">
-        <v>50</v>
+        <v>-40</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1267,72 +1265,72 @@
         <v>47</v>
       </c>
       <c r="C14" s="1">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="D14" s="1">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>13.1</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
+        <v>1.93</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="1">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="D15" s="1">
-        <v>18.5</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>13.1</v>
+        <v>17.47</v>
       </c>
       <c r="F15" s="1">
-        <v>1.93</v>
+        <v>5.14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="1">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1340,40 +1338,40 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
-        <v>33.159999999999997</v>
+        <v>4.22</v>
       </c>
       <c r="E16" s="1">
-        <v>17.47</v>
+        <v>1.03</v>
       </c>
       <c r="F16" s="1">
-        <v>5.14</v>
+        <v>0.49</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-100</v>
+        <v>86</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1381,34 +1379,34 @@
         <v>48</v>
       </c>
       <c r="C17" s="1">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="D17" s="1">
-        <v>4.22</v>
+        <v>44.24</v>
       </c>
       <c r="E17" s="1">
-        <v>1.03</v>
+        <v>6.11</v>
       </c>
       <c r="F17" s="1">
-        <v>0.49</v>
+        <v>11.28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
+      </c>
+      <c r="J17" s="1">
+        <v>60</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1416,227 +1414,227 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="D18" s="1">
-        <v>44.24</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>6.11</v>
+        <v>21.4</v>
       </c>
       <c r="F18" s="1">
-        <v>11.28</v>
+        <v>8.6</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D19" s="1">
-        <v>39.799999999999997</v>
+        <v>75.5</v>
       </c>
       <c r="E19" s="1">
-        <v>21.4</v>
+        <v>1.7</v>
       </c>
       <c r="F19" s="1">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="D20" s="1">
-        <v>75.5</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1">
-        <v>1.7</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1">
-        <v>10.3</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1">
-        <v>40</v>
+        <v>-216</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
-        <v>432</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>16</v>
+        <v>4.5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J21" s="1">
-        <v>-216</v>
+        <v>40</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="F22" s="1">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" s="1">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="D23" s="1">
-        <v>28</v>
+        <v>23.8</v>
       </c>
       <c r="E23" s="1">
-        <v>0.3</v>
+        <v>6.7</v>
       </c>
       <c r="F23" s="1">
-        <v>2.4</v>
+        <v>9.1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J23" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1644,37 +1642,37 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1">
-        <v>23.8</v>
+        <v>25.48</v>
       </c>
       <c r="E24" s="1">
-        <v>6.7</v>
+        <v>8.91</v>
       </c>
       <c r="F24" s="1">
-        <v>9.1</v>
+        <v>8.23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J24" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1682,37 +1680,37 @@
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1">
-        <v>25.48</v>
+        <v>6.54</v>
       </c>
       <c r="E25" s="1">
-        <v>8.91</v>
+        <v>6.48</v>
       </c>
       <c r="F25" s="1">
-        <v>8.23</v>
+        <v>6.48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1720,37 +1718,37 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D26" s="1">
-        <v>6.54</v>
+        <v>12.6</v>
       </c>
       <c r="E26" s="1">
-        <v>6.48</v>
+        <v>2.5</v>
       </c>
       <c r="F26" s="1">
-        <v>6.48</v>
+        <v>5.2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J26" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1758,37 +1756,37 @@
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1">
-        <v>12.6</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1796,37 +1794,37 @@
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J28" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1834,37 +1832,37 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1872,75 +1870,37 @@
         <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J30" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="1">
-        <v>85</v>
-      </c>
-      <c r="D31" s="1">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J31" s="1">
-        <v>50</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
